--- a/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
+++ b/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
@@ -1,125 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="320" windowWidth="18830" windowHeight="6560" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-20" yWindow="460" windowWidth="22900" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="AOCoLUPpUA" sheetId="3" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forest Mgmt Costs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AOCoLUPpUA" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="C_to_CO2">'[1]Conversion Factors'!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>AOCoLUPpUA Annual Ongoing Cost of Land Use Policies per Unit Area</t>
-  </si>
-  <si>
-    <t>forest set asides</t>
-  </si>
-  <si>
-    <t>afforestation and reforestation</t>
-  </si>
-  <si>
-    <t>improved forest management</t>
-  </si>
-  <si>
-    <t>avoid deforestation</t>
-  </si>
-  <si>
-    <t>peatland restoration</t>
-  </si>
-  <si>
-    <t>forest restoration</t>
-  </si>
-  <si>
-    <t>annual maintenance cost ($ / acre)</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>We do not have good data on with respect to ongoing costs.</t>
-  </si>
-  <si>
-    <t>GGRF-type projects are mostly front loaded.</t>
-  </si>
-  <si>
-    <t>IFM project types, which involve a change to a longer forest rotation, do not obviously entail additional costs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less frequent harvesting might actually reduce costs per acre. </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="4"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF403F41"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -144,7 +122,7 @@
       <right/>
       <top/>
       <bottom style="dashed">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </bottom>
       <diagonal/>
     </border>
@@ -169,56 +147,74 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Body: normal cell" xfId="1"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
     <cellStyle name="Footnotes: top row" xfId="3"/>
     <cellStyle name="Header: bottom row" xfId="4"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Parent row" xfId="5"/>
     <cellStyle name="Table title" xfId="6"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -317,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,9 +346,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +398,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,128 +590,1831 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>AOCoLUPpUA Annual Ongoing Cost of Land Use Policies per Unit Area</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>&lt;- State</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>(Note, does not work for Alaska or Hawaii)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Source:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>U.S. Forest Service</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>Cost of passive forest management</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>U.S. Forest Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Regional Cost Information for Private Timberland Conversion and Management</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>http://www.fs.fed.us/pnw/pubs/pnw-gtr684.pdf</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Costs of Sequestering Carbon Through Tree Planting and Forest Management in the United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Table 2 (forest area by region), Table 5 (management costs per acre by region)</t>
+        </is>
+      </c>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>https://archive.org/details/CAT91946672</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Table 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Avoid deforestion, peatland restoration, and forest restoration policies</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>are not used in the U.S. version of the model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>This variable is for the costs to maintain lands previously affected by one of the</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>land use policies (such as "Afforestation/Reforestation") and thereby</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>avoid emission of sequestered CO2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>This variable is NOT for use with the Improved Forest Management policy,</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>as that policy must be repeated every year in order to obtain carbon benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>in that year.  Its cost is handled in the "Implementation Cost of Land Use</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Policies per Unit Area" variable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Both new forests (from afforestation/reforestation) and forests set aside from</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>timber harvesting need to be managed. However, decadal management is significantly cheaper than growing for yield.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Currency Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>We adjust the sources' dollars to 2012 dollars using the following conversion factors:</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.278</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2002 to 2012, for U.S. Forest Service (2006) "Regional Cost Information…"</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1990 to 2012 inflation</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="J7" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F107"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="25.1640625" customWidth="1" min="1" max="1"/>
+    <col width="11.83203125" customWidth="1" min="2" max="2"/>
+    <col width="11.33203125" customWidth="1" min="3" max="3"/>
+    <col width="20.1640625" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Table 2: Forest by Region (thousand acres)</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="4" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Softwood</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Hardwood</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Corn Belt</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>50+1614</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>377+25502</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lake States</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>972+4013</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>2396+22953</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>3955+13315</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>7041+45009</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PNE</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>2879+2953</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>119</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PNW</t>
+        </is>
+      </c>
+      <c r="B7">
+        <f>6236+2826</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>923+1277</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PSW</t>
+        </is>
+      </c>
+      <c r="B8">
+        <f>2156+2707</f>
+        <v/>
+      </c>
+      <c r="C8">
+        <f>826+1748</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="B9">
+        <f>2918+12457</f>
+        <v/>
+      </c>
+      <c r="C9">
+        <f>8+2680</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="B10">
+        <f>15095+29814</f>
+        <v/>
+      </c>
+      <c r="C10">
+        <f>7434+52435</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B11">
+        <f>10315+29977</f>
+        <v/>
+      </c>
+      <c r="C11">
+        <f>4193+30945</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Table 5: Cost per acre of forest management practices by region</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Region and Practice</t>
+        </is>
+      </c>
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t>Stand Type</t>
+        </is>
+      </c>
+      <c r="D14" s="13" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PNW</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Softwoods</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Hardwoods</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Decadal Management*</t>
+        </is>
+      </c>
+      <c r="B16">
+        <f>39/10</f>
+        <v/>
+      </c>
+      <c r="C16">
+        <f>35.46/10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Precommercial thin</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>hardwoods value assumed to be zero</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Fertilizer</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="C18" s="6">
+        <f>C23*(B18/B23)</f>
+        <v/>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>hardwoods value calculated based on other area fertizlier costs and scaled relative to softwoods compared to other regions</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Herbicide</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>58.48</v>
+      </c>
+      <c r="C19" t="n">
+        <v>58.48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Decadal Management*</t>
+        </is>
+      </c>
+      <c r="B21">
+        <f>21.5/10</f>
+        <v/>
+      </c>
+      <c r="C21">
+        <f>16.71/10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Precommercial thin</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>hardwoods value assumed to be zero</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Fertilizer</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Herbicide</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>58.48</v>
+      </c>
+      <c r="C24" t="n">
+        <v>58.48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Decadal Management*</t>
+        </is>
+      </c>
+      <c r="B26">
+        <f>21.61/10</f>
+        <v/>
+      </c>
+      <c r="C26">
+        <f>16.8/10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Precommercial thin</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>hardwoods value assumed to be zero</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Fertilizer</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Herbicide</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>58.48</v>
+      </c>
+      <c r="C29" t="n">
+        <v>58.48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cornbelt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Decadal Management*</t>
+        </is>
+      </c>
+      <c r="B31">
+        <f>24.49/10</f>
+        <v/>
+      </c>
+      <c r="C31">
+        <f>37.7/10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Precommercial thin</t>
+        </is>
+      </c>
+      <c r="B32" s="6">
+        <f>AVERAGE(B27,B22,B17)</f>
+        <v/>
+      </c>
+      <c r="C32" s="5">
+        <f>AVERAGE(C27,C22,C17)</f>
+        <v/>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>values calculated based on other data in this table</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Fertilizer</t>
+        </is>
+      </c>
+      <c r="B33" s="5">
+        <f>AVERAGE(B28,B23,B18)</f>
+        <v/>
+      </c>
+      <c r="C33" s="6">
+        <f>AVERAGE(C28,C23,C18)</f>
+        <v/>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>values calculated based on other data in this table</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Herbicide</t>
+        </is>
+      </c>
+      <c r="B34" s="5">
+        <f>AVERAGE(B29,B24,B19)</f>
+        <v/>
+      </c>
+      <c r="C34" s="5">
+        <f>AVERAGE(C29,C24,C19)</f>
+        <v/>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>values calculated based on other data in this table</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>*Decadal costs are annualized here</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Calculated Average Forest Management Cost National</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="17">
+        <f>(SUM(B16:B19)*B7+SUM(C16:C19)*C7+SUM(B21:B24)*B11+SUM(C21:C24)*C11+SUM(B26:B29)*B10+SUM(C26:C29)*C10+SUM(B31:B34)*B3+SUM(C31:C34)*C3)/SUM(B3:C3,B7:C7,B10:C11)</f>
+        <v/>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2002$ / acre</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="17">
+        <f>A39*About!A27</f>
+        <v/>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2012$ / acre</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Calculated Forest Management by Region (Decadal Management)</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Columns A through C taken from Table 1 in 1990 U.S. Forest Service document:</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="96" customHeight="1">
+      <c r="A46" s="10" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="inlineStr">
+        <is>
+          <t>Passive Forest Management Costs (1990$/acre/year)</t>
+        </is>
+      </c>
+      <c r="D46" s="10" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D47" s="14" t="inlineStr">
+        <is>
+          <t>Current state</t>
+        </is>
+      </c>
+      <c r="E47" s="16" t="inlineStr">
+        <is>
+          <t>1990 ($)</t>
+        </is>
+      </c>
+      <c r="F47" s="16" t="inlineStr">
+        <is>
+          <t>2012 ($)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Lake States</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D48">
+        <f>About!B1</f>
+        <v/>
+      </c>
+      <c r="E48">
+        <f>LOOKUP(D48,A59:C107,C59:C107)</f>
+        <v/>
+      </c>
+      <c r="F48">
+        <f>E48*About!A29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Corn Belt</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Northern Plains</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Appalachian</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Southeast</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Delta States</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Southern Plains</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Pacific</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D56" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="B58" s="11" t="inlineStr">
+        <is>
+          <t>Appalachian</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>Alaska</t>
+        </is>
+      </c>
+      <c r="B59" s="11" t="n"/>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+      <c r="C60">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B60)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>Arkansas</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Delta States</t>
+        </is>
+      </c>
+      <c r="C61">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B61)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Pacific</t>
+        </is>
+      </c>
+      <c r="C62">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+      <c r="C63">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="C64">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B64)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="C65">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B65)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Southeast</t>
+        </is>
+      </c>
+      <c r="C66">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B66)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B67" s="11" t="inlineStr">
+        <is>
+          <t>Appalachian</t>
+        </is>
+      </c>
+      <c r="C67">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B68" s="11" t="n"/>
+      <c r="C68">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B68)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+      <c r="C69">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B69)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Lake States</t>
+        </is>
+      </c>
+      <c r="C70">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B70)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="11" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Lake States</t>
+        </is>
+      </c>
+      <c r="C71">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11" t="inlineStr">
+        <is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Corn Belt</t>
+        </is>
+      </c>
+      <c r="C72">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B72)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="inlineStr">
+        <is>
+          <t>Kansas</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Corn Belt</t>
+        </is>
+      </c>
+      <c r="C73">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B73)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="B74" s="11" t="inlineStr">
+        <is>
+          <t>Appalachian</t>
+        </is>
+      </c>
+      <c r="C74">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B74)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="11" t="inlineStr">
+        <is>
+          <t>Louisiana</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Delta States</t>
+        </is>
+      </c>
+      <c r="C75">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B75)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="11" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="C76">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B76)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="11" t="inlineStr">
+        <is>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="C77">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B77)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="11" t="inlineStr">
+        <is>
+          <t>Massachusetts</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="C78">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="11" t="inlineStr">
+        <is>
+          <t>Michigan</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Lake States</t>
+        </is>
+      </c>
+      <c r="C79">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Northern Plains</t>
+        </is>
+      </c>
+      <c r="C80">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B80)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="11" t="inlineStr">
+        <is>
+          <t>Mississippi</t>
+        </is>
+      </c>
+      <c r="B81" s="11" t="inlineStr">
+        <is>
+          <t>Appalachian</t>
+        </is>
+      </c>
+      <c r="C81">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B81)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="11" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Corn Belt</t>
+        </is>
+      </c>
+      <c r="C82">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+      <c r="C83">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B83)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Northern Plains</t>
+        </is>
+      </c>
+      <c r="C84">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B84)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="11" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+      <c r="C85">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B85)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="inlineStr">
+        <is>
+          <t>New Hampshire</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="C86">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B86)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="11" t="inlineStr">
+        <is>
+          <t>New Jersey</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="C87">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="11" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Southern Plains</t>
+        </is>
+      </c>
+      <c r="C88">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="11" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="C89">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B89)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="11" t="inlineStr">
+        <is>
+          <t>North Carolina</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Southeast</t>
+        </is>
+      </c>
+      <c r="C90">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="11" t="inlineStr">
+        <is>
+          <t>North Dakota</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Northern Plains</t>
+        </is>
+      </c>
+      <c r="C91">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B91)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="11" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Lake States</t>
+        </is>
+      </c>
+      <c r="C92">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B92)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="11" t="inlineStr">
+        <is>
+          <t>Oklahoma</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Southern Plains</t>
+        </is>
+      </c>
+      <c r="C93">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B93)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="11" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Pacific</t>
+        </is>
+      </c>
+      <c r="C94">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B94)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="11" t="inlineStr">
+        <is>
+          <t>Pennsylvania</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Appalachian</t>
+        </is>
+      </c>
+      <c r="C95">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="11" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="C96">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B96)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="11" t="inlineStr">
+        <is>
+          <t>South Carolina</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Southeast</t>
+        </is>
+      </c>
+      <c r="C97">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B97)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="11" t="inlineStr">
+        <is>
+          <t>South Dakota</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Northern Plains</t>
+        </is>
+      </c>
+      <c r="C98">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B98)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="11" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="B99" s="11" t="inlineStr">
+        <is>
+          <t>Appalachian</t>
+        </is>
+      </c>
+      <c r="C99">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B99)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="11" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Southern Plains</t>
+        </is>
+      </c>
+      <c r="C100">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="11" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+      <c r="C101">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="11" t="inlineStr">
+        <is>
+          <t>Vermont</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="C102">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B102)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="11" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Southeast</t>
+        </is>
+      </c>
+      <c r="C103">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B103)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="11" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pacific</t>
+        </is>
+      </c>
+      <c r="C104">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B104)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="11" t="inlineStr">
+        <is>
+          <t>West Virginia</t>
+        </is>
+      </c>
+      <c r="B105" s="11" t="inlineStr">
+        <is>
+          <t>Appalachian</t>
+        </is>
+      </c>
+      <c r="C105">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B105)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="11" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Lake States</t>
+        </is>
+      </c>
+      <c r="C106">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B106)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="11" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+      <c r="C107">
+        <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B107)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor theme="3"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col width="31.1640625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>annual maintenance cost ($ / acre)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>forest set asides</t>
+        </is>
+      </c>
+      <c r="B2" s="17">
+        <f>'Forest Mgmt Costs'!F48</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>afforestation and reforestation</t>
+        </is>
+      </c>
+      <c r="B3" s="17">
+        <f>'Forest Mgmt Costs'!F48</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>improved forest management</t>
+        </is>
+      </c>
+      <c r="B4" s="17" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>avoid deforestation</t>
+        </is>
+      </c>
+      <c r="B5" s="17" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>peatland restoration</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>forest restoration</t>
+        </is>
+      </c>
+      <c r="B7" s="17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
+++ b/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-20" yWindow="460" windowWidth="22900" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="22900" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -165,7 +165,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -175,29 +175,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,6 +207,74 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -597,8 +662,8 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -614,10 +679,8 @@
           <t>California</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>&lt;- State</t>
-        </is>
+      <c r="C1" s="16" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="2">
@@ -665,7 +728,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>http://www.fs.fed.us/pnw/pubs/pnw-gtr684.pdf</t>
         </is>
@@ -682,7 +745,7 @@
           <t>Table 2 (forest area by region), Table 5 (management costs per acre by region)</t>
         </is>
       </c>
-      <c r="J7" s="8" t="inlineStr">
+      <c r="J7" s="7" t="inlineStr">
         <is>
           <t>https://archive.org/details/CAT91946672</t>
         </is>
@@ -838,15 +901,15 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="25.1640625" customWidth="1" min="1" max="1"/>
-    <col width="11.83203125" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="20.1640625" customWidth="1" min="4" max="4"/>
+    <col width="25.1640625" customWidth="1" style="14" min="1" max="1"/>
+    <col width="11.83203125" customWidth="1" style="14" min="2" max="2"/>
+    <col width="11.33203125" customWidth="1" style="14" min="3" max="3"/>
+    <col width="20.1640625" customWidth="1" style="14" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1026,12 +1089,12 @@
           <t>Region and Practice</t>
         </is>
       </c>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="B14" s="13" t="inlineStr">
         <is>
           <t>Stand Type</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -1350,7 +1413,7 @@
       <c r="C38" s="4" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="17">
+      <c r="A39" s="12">
         <f>(SUM(B16:B19)*B7+SUM(C16:C19)*C7+SUM(B21:B24)*B11+SUM(C21:C24)*C11+SUM(B26:B29)*B10+SUM(C26:C29)*C10+SUM(B31:B34)*B3+SUM(C31:C34)*C3)/SUM(B3:C3,B7:C7,B10:C11)</f>
         <v/>
       </c>
@@ -1361,7 +1424,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="17">
+      <c r="A40" s="12">
         <f>A39*About!A27</f>
         <v/>
       </c>
@@ -1387,18 +1450,18 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="96" customHeight="1">
-      <c r="A46" s="10" t="inlineStr">
+    <row r="46" ht="96" customHeight="1" s="14">
+      <c r="A46" s="8" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="B46" s="10" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Passive Forest Management Costs (1990$/acre/year)</t>
         </is>
       </c>
-      <c r="D46" s="10" t="n"/>
+      <c r="D46" s="8" t="n"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1409,17 +1472,17 @@
       <c r="B47" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="D47" s="14" t="inlineStr">
+      <c r="D47" s="10" t="inlineStr">
         <is>
           <t>Current state</t>
         </is>
       </c>
-      <c r="E47" s="16" t="inlineStr">
+      <c r="E47" s="11" t="inlineStr">
         <is>
           <t>1990 ($)</t>
         </is>
       </c>
-      <c r="F47" s="16" t="inlineStr">
+      <c r="F47" s="11" t="inlineStr">
         <is>
           <t>2012 ($)</t>
         </is>
@@ -1439,7 +1502,7 @@
         <v/>
       </c>
       <c r="E48">
-        <f>LOOKUP(D48,A59:C107,C59:C107)</f>
+        <f>LOOKUP(D48,A58:C107,C59:C107)</f>
         <v/>
       </c>
       <c r="F48">
@@ -1536,30 +1599,33 @@
       <c r="D56" s="2" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="inlineStr">
+      <c r="A58" s="9" t="inlineStr">
         <is>
           <t>Alabama</t>
         </is>
       </c>
-      <c r="B58" s="11" t="inlineStr">
+      <c r="B58" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
       </c>
+      <c r="C58" t="n">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="inlineStr">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>Alaska</t>
         </is>
       </c>
-      <c r="B59" s="11" t="n"/>
+      <c r="B59" s="9" t="n"/>
       <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="inlineStr">
+      <c r="A60" s="9" t="inlineStr">
         <is>
           <t>Arizona</t>
         </is>
@@ -1575,7 +1641,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
         <is>
           <t>Arkansas</t>
         </is>
@@ -1591,7 +1657,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="inlineStr">
+      <c r="A62" s="9" t="inlineStr">
         <is>
           <t>California</t>
         </is>
@@ -1607,7 +1673,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="inlineStr">
+      <c r="A63" s="9" t="inlineStr">
         <is>
           <t>Colorado</t>
         </is>
@@ -1623,7 +1689,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="inlineStr">
+      <c r="A64" s="9" t="inlineStr">
         <is>
           <t>Connecticut</t>
         </is>
@@ -1639,7 +1705,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="inlineStr">
+      <c r="A65" s="9" t="inlineStr">
         <is>
           <t>Delaware</t>
         </is>
@@ -1655,7 +1721,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="inlineStr">
+      <c r="A66" s="9" t="inlineStr">
         <is>
           <t>Florida</t>
         </is>
@@ -1671,12 +1737,12 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="inlineStr">
+      <c r="A67" s="9" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B67" s="11" t="inlineStr">
+      <c r="B67" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
@@ -1687,19 +1753,19 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="inlineStr">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="B68" s="11" t="n"/>
+      <c r="B68" s="9" t="n"/>
       <c r="C68">
         <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B68)</f>
         <v/>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="11" t="inlineStr">
+      <c r="A69" s="9" t="inlineStr">
         <is>
           <t>Idaho</t>
         </is>
@@ -1715,7 +1781,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="inlineStr">
+      <c r="A70" s="9" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
@@ -1731,7 +1797,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="11" t="inlineStr">
+      <c r="A71" s="9" t="inlineStr">
         <is>
           <t>Indiana</t>
         </is>
@@ -1747,7 +1813,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="inlineStr">
+      <c r="A72" s="9" t="inlineStr">
         <is>
           <t>Iowa</t>
         </is>
@@ -1763,7 +1829,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="inlineStr">
+      <c r="A73" s="9" t="inlineStr">
         <is>
           <t>Kansas</t>
         </is>
@@ -1779,12 +1845,12 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="11" t="inlineStr">
+      <c r="A74" s="9" t="inlineStr">
         <is>
           <t>Kentucky</t>
         </is>
       </c>
-      <c r="B74" s="11" t="inlineStr">
+      <c r="B74" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
@@ -1795,7 +1861,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="11" t="inlineStr">
+      <c r="A75" s="9" t="inlineStr">
         <is>
           <t>Louisiana</t>
         </is>
@@ -1811,7 +1877,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="inlineStr">
+      <c r="A76" s="9" t="inlineStr">
         <is>
           <t>Maine</t>
         </is>
@@ -1827,7 +1893,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="11" t="inlineStr">
+      <c r="A77" s="9" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
@@ -1843,7 +1909,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="11" t="inlineStr">
+      <c r="A78" s="9" t="inlineStr">
         <is>
           <t>Massachusetts</t>
         </is>
@@ -1859,7 +1925,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="11" t="inlineStr">
+      <c r="A79" s="9" t="inlineStr">
         <is>
           <t>Michigan</t>
         </is>
@@ -1875,7 +1941,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="11" t="inlineStr">
+      <c r="A80" s="9" t="inlineStr">
         <is>
           <t>Minnesota</t>
         </is>
@@ -1891,12 +1957,12 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="11" t="inlineStr">
+      <c r="A81" s="9" t="inlineStr">
         <is>
           <t>Mississippi</t>
         </is>
       </c>
-      <c r="B81" s="11" t="inlineStr">
+      <c r="B81" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
@@ -1907,7 +1973,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="11" t="inlineStr">
+      <c r="A82" s="9" t="inlineStr">
         <is>
           <t>Missouri</t>
         </is>
@@ -1923,7 +1989,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="11" t="inlineStr">
+      <c r="A83" s="9" t="inlineStr">
         <is>
           <t>Montana</t>
         </is>
@@ -1939,7 +2005,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="11" t="inlineStr">
+      <c r="A84" s="9" t="inlineStr">
         <is>
           <t>Nebraska</t>
         </is>
@@ -1955,7 +2021,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="11" t="inlineStr">
+      <c r="A85" s="9" t="inlineStr">
         <is>
           <t>Nevada</t>
         </is>
@@ -1971,7 +2037,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="11" t="inlineStr">
+      <c r="A86" s="9" t="inlineStr">
         <is>
           <t>New Hampshire</t>
         </is>
@@ -1987,7 +2053,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="11" t="inlineStr">
+      <c r="A87" s="9" t="inlineStr">
         <is>
           <t>New Jersey</t>
         </is>
@@ -2003,7 +2069,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="11" t="inlineStr">
+      <c r="A88" s="9" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
@@ -2019,7 +2085,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="11" t="inlineStr">
+      <c r="A89" s="9" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -2035,7 +2101,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="11" t="inlineStr">
+      <c r="A90" s="9" t="inlineStr">
         <is>
           <t>North Carolina</t>
         </is>
@@ -2051,7 +2117,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="11" t="inlineStr">
+      <c r="A91" s="9" t="inlineStr">
         <is>
           <t>North Dakota</t>
         </is>
@@ -2067,7 +2133,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="11" t="inlineStr">
+      <c r="A92" s="9" t="inlineStr">
         <is>
           <t>Ohio</t>
         </is>
@@ -2083,7 +2149,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="11" t="inlineStr">
+      <c r="A93" s="9" t="inlineStr">
         <is>
           <t>Oklahoma</t>
         </is>
@@ -2099,7 +2165,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="11" t="inlineStr">
+      <c r="A94" s="9" t="inlineStr">
         <is>
           <t>Oregon</t>
         </is>
@@ -2115,7 +2181,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="11" t="inlineStr">
+      <c r="A95" s="9" t="inlineStr">
         <is>
           <t>Pennsylvania</t>
         </is>
@@ -2131,7 +2197,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="11" t="inlineStr">
+      <c r="A96" s="9" t="inlineStr">
         <is>
           <t>Rhode Island</t>
         </is>
@@ -2147,7 +2213,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="11" t="inlineStr">
+      <c r="A97" s="9" t="inlineStr">
         <is>
           <t>South Carolina</t>
         </is>
@@ -2163,7 +2229,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="11" t="inlineStr">
+      <c r="A98" s="9" t="inlineStr">
         <is>
           <t>South Dakota</t>
         </is>
@@ -2179,12 +2245,12 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="11" t="inlineStr">
+      <c r="A99" s="9" t="inlineStr">
         <is>
           <t>Tennessee</t>
         </is>
       </c>
-      <c r="B99" s="11" t="inlineStr">
+      <c r="B99" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
@@ -2195,7 +2261,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="11" t="inlineStr">
+      <c r="A100" s="9" t="inlineStr">
         <is>
           <t>Texas</t>
         </is>
@@ -2211,7 +2277,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="11" t="inlineStr">
+      <c r="A101" s="9" t="inlineStr">
         <is>
           <t>Utah</t>
         </is>
@@ -2227,7 +2293,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="11" t="inlineStr">
+      <c r="A102" s="9" t="inlineStr">
         <is>
           <t>Vermont</t>
         </is>
@@ -2243,7 +2309,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="11" t="inlineStr">
+      <c r="A103" s="9" t="inlineStr">
         <is>
           <t>Virginia</t>
         </is>
@@ -2259,7 +2325,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="11" t="inlineStr">
+      <c r="A104" s="9" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
@@ -2275,12 +2341,12 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="11" t="inlineStr">
+      <c r="A105" s="9" t="inlineStr">
         <is>
           <t>West Virginia</t>
         </is>
       </c>
-      <c r="B105" s="11" t="inlineStr">
+      <c r="B105" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
@@ -2291,7 +2357,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="11" t="inlineStr">
+      <c r="A106" s="9" t="inlineStr">
         <is>
           <t>Wisconsin</t>
         </is>
@@ -2307,7 +2373,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="11" t="inlineStr">
+      <c r="A107" s="9" t="inlineStr">
         <is>
           <t>Wyoming</t>
         </is>
@@ -2340,13 +2406,13 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="31.1640625" customWidth="1" min="1" max="1"/>
+    <col width="31.1640625" customWidth="1" style="14" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2362,7 +2428,7 @@
           <t>forest set asides</t>
         </is>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="12">
         <f>'Forest Mgmt Costs'!F48</f>
         <v/>
       </c>
@@ -2373,7 +2439,7 @@
           <t>afforestation and reforestation</t>
         </is>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="12">
         <f>'Forest Mgmt Costs'!F48</f>
         <v/>
       </c>
@@ -2384,7 +2450,7 @@
           <t>improved forest management</t>
         </is>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2394,7 +2460,7 @@
           <t>avoid deforestation</t>
         </is>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2404,7 +2470,7 @@
           <t>peatland restoration</t>
         </is>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2414,7 +2480,7 @@
           <t>forest restoration</t>
         </is>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
+++ b/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\CA\land\AOCoLUPpUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/land/AOCoLUPpUA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A41712-8A9F-4D90-9CD3-3A53574FBDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C2F29D5-3424-CE4A-A455-E5919A910984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="19200" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -372,12 +372,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -410,7 +408,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Conversion Factors"/>
@@ -467,9 +465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -507,9 +505,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,26 +540,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,26 +575,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -793,20 +757,20 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="12">
-        <v>44531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C1" s="10">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -814,97 +778,97 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.278</v>
       </c>
@@ -912,7 +876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -931,33 +895,33 @@
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -970,7 +934,7 @@
         <v>25879</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -983,7 +947,7 @@
         <v>25349</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -996,7 +960,7 @@
         <v>52050</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +973,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1022,7 +986,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1035,7 +999,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1048,7 +1012,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1061,7 +1025,7 @@
         <v>59869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1074,7 +1038,7 @@
         <v>35138</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1082,19 +1046,19 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1104,9 +1068,9 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1119,28 +1083,28 @@
         <v>3.5460000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17">
         <v>95.55</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
         <v>44.67</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <f>C23*(B18/B23)</f>
         <v>13.041950354609931</v>
       </c>
@@ -1148,7 +1112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1159,12 +1123,12 @@
         <v>58.48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1177,21 +1141,21 @@
         <v>1.671</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22">
         <v>65.11</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1202,7 +1166,7 @@
         <v>14.82</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1213,12 +1177,12 @@
         <v>58.48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1231,21 +1195,21 @@
         <v>1.6800000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27">
         <v>65.11</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1256,7 +1220,7 @@
         <v>14.82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1267,12 +1231,12 @@
         <v>58.48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1285,15 +1249,15 @@
         <v>3.7700000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <f>AVERAGE(B27,B22,B17)</f>
         <v>75.256666666666661</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <f>AVERAGE(C27,C22,C17)</f>
         <v>0</v>
       </c>
@@ -1301,15 +1265,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <f t="shared" ref="B33:C34" si="0">AVERAGE(B28,B23,B18)</f>
         <v>48.73</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <f t="shared" si="0"/>
         <v>14.227316784869977</v>
       </c>
@@ -1317,15 +1281,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>58.48</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <f t="shared" si="0"/>
         <v>58.48</v>
       </c>
@@ -1333,20 +1297,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
         <f>(SUM(B16:B19)*B7+SUM(C16:C19)*C7+SUM(B21:B24)*B11+SUM(C21:C24)*C11+SUM(B26:B29)*B10+SUM(C26:C29)*C10+SUM(B31:B34)*B3+SUM(C31:C34)*C3)/SUM(B3:C3,B7:C7,B10:C11)</f>
         <v>120.76792682712498</v>
       </c>
@@ -1354,8 +1318,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="11">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <f>A39*About!A27</f>
         <v>154.34141048506572</v>
       </c>
@@ -1383,17 +1347,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1366,7 @@
         <v>154.34141048506572</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1411,15 +1375,15 @@
         <v>154.34141048506572</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1428,7 +1392,7 @@
         <v>154.34141048506572</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1436,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
